--- a/data/tracks.xlsx
+++ b/data/tracks.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google\University\data analysis\work\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E8F640-5B46-4371-8A8B-5D310CB8F3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B990BFB-289A-4200-8B91-48F8B031FF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,15 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="155">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>AlbumId</t>
-  </si>
-  <si>
-    <t>Milliseconds</t>
-  </si>
-  <si>
     <t>For Those About To Rock (We Salute You)</t>
   </si>
   <si>
@@ -490,6 +490,15 @@
   </si>
   <si>
     <t>A Estrada</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Альбом ID</t>
+  </si>
+  <si>
+    <t>Прослушиваний</t>
   </si>
 </sst>
 </file>
@@ -866,7 +875,7 @@
   <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,18 +887,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -900,7 +909,7 @@
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -911,7 +920,7 @@
     </row>
     <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -922,7 +931,7 @@
     </row>
     <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -933,7 +942,7 @@
     </row>
     <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -944,7 +953,7 @@
     </row>
     <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -955,7 +964,7 @@
     </row>
     <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -966,7 +975,7 @@
     </row>
     <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -977,7 +986,7 @@
     </row>
     <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -988,7 +997,7 @@
     </row>
     <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -999,7 +1008,7 @@
     </row>
     <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
@@ -1010,7 +1019,7 @@
     </row>
     <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>3</v>
@@ -1021,7 +1030,7 @@
     </row>
     <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
@@ -1032,7 +1041,7 @@
     </row>
     <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
@@ -1043,7 +1052,7 @@
     </row>
     <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
@@ -1054,7 +1063,7 @@
     </row>
     <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3">
         <v>4</v>
@@ -1065,7 +1074,7 @@
     </row>
     <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
         <v>4</v>
@@ -1076,7 +1085,7 @@
     </row>
     <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3">
         <v>4</v>
@@ -1087,7 +1096,7 @@
     </row>
     <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3">
         <v>4</v>
@@ -1098,7 +1107,7 @@
     </row>
     <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>4</v>
@@ -1109,7 +1118,7 @@
     </row>
     <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
@@ -1120,7 +1129,7 @@
     </row>
     <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3">
         <v>4</v>
@@ -1131,7 +1140,7 @@
     </row>
     <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3">
         <v>5</v>
@@ -1142,7 +1151,7 @@
     </row>
     <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3">
         <v>5</v>
@@ -1153,7 +1162,7 @@
     </row>
     <row r="26" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -1164,7 +1173,7 @@
     </row>
     <row r="27" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3">
         <v>5</v>
@@ -1175,7 +1184,7 @@
     </row>
     <row r="28" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
@@ -1186,7 +1195,7 @@
     </row>
     <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3">
         <v>5</v>
@@ -1197,7 +1206,7 @@
     </row>
     <row r="30" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3">
         <v>5</v>
@@ -1208,7 +1217,7 @@
     </row>
     <row r="31" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3">
         <v>5</v>
@@ -1219,7 +1228,7 @@
     </row>
     <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3">
         <v>5</v>
@@ -1230,7 +1239,7 @@
     </row>
     <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3">
         <v>5</v>
@@ -1241,7 +1250,7 @@
     </row>
     <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3">
         <v>5</v>
@@ -1252,7 +1261,7 @@
     </row>
     <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3">
         <v>5</v>
@@ -1263,7 +1272,7 @@
     </row>
     <row r="36" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3">
         <v>5</v>
@@ -1274,7 +1283,7 @@
     </row>
     <row r="37" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3">
         <v>5</v>
@@ -1285,7 +1294,7 @@
     </row>
     <row r="38" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3">
         <v>5</v>
@@ -1296,7 +1305,7 @@
     </row>
     <row r="39" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3">
         <v>6</v>
@@ -1307,7 +1316,7 @@
     </row>
     <row r="40" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3">
         <v>6</v>
@@ -1318,7 +1327,7 @@
     </row>
     <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3">
         <v>6</v>
@@ -1329,7 +1338,7 @@
     </row>
     <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3">
         <v>6</v>
@@ -1340,7 +1349,7 @@
     </row>
     <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B43" s="3">
         <v>6</v>
@@ -1351,7 +1360,7 @@
     </row>
     <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3">
         <v>6</v>
@@ -1362,7 +1371,7 @@
     </row>
     <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3">
         <v>6</v>
@@ -1373,7 +1382,7 @@
     </row>
     <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B46" s="3">
         <v>6</v>
@@ -1384,7 +1393,7 @@
     </row>
     <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B47" s="3">
         <v>6</v>
@@ -1395,7 +1404,7 @@
     </row>
     <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B48" s="3">
         <v>6</v>
@@ -1406,7 +1415,7 @@
     </row>
     <row r="49" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B49" s="3">
         <v>6</v>
@@ -1417,7 +1426,7 @@
     </row>
     <row r="50" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B50" s="3">
         <v>6</v>
@@ -1428,7 +1437,7 @@
     </row>
     <row r="51" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3">
         <v>6</v>
@@ -1439,7 +1448,7 @@
     </row>
     <row r="52" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B52" s="3">
         <v>7</v>
@@ -1450,7 +1459,7 @@
     </row>
     <row r="53" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B53" s="3">
         <v>7</v>
@@ -1461,7 +1470,7 @@
     </row>
     <row r="54" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B54" s="3">
         <v>7</v>
@@ -1472,7 +1481,7 @@
     </row>
     <row r="55" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B55" s="3">
         <v>7</v>
@@ -1483,7 +1492,7 @@
     </row>
     <row r="56" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B56" s="3">
         <v>7</v>
@@ -1494,7 +1503,7 @@
     </row>
     <row r="57" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B57" s="3">
         <v>7</v>
@@ -1505,7 +1514,7 @@
     </row>
     <row r="58" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B58" s="3">
         <v>7</v>
@@ -1516,7 +1525,7 @@
     </row>
     <row r="59" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B59" s="3">
         <v>7</v>
@@ -1527,7 +1536,7 @@
     </row>
     <row r="60" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B60" s="3">
         <v>7</v>
@@ -1538,7 +1547,7 @@
     </row>
     <row r="61" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B61" s="3">
         <v>7</v>
@@ -1549,7 +1558,7 @@
     </row>
     <row r="62" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B62" s="3">
         <v>7</v>
@@ -1560,7 +1569,7 @@
     </row>
     <row r="63" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B63" s="3">
         <v>7</v>
@@ -1571,7 +1580,7 @@
     </row>
     <row r="64" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B64" s="3">
         <v>8</v>
@@ -1582,7 +1591,7 @@
     </row>
     <row r="65" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B65" s="3">
         <v>8</v>
@@ -1593,7 +1602,7 @@
     </row>
     <row r="66" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B66" s="3">
         <v>8</v>
@@ -1604,7 +1613,7 @@
     </row>
     <row r="67" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B67" s="3">
         <v>8</v>
@@ -1615,7 +1624,7 @@
     </row>
     <row r="68" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B68" s="3">
         <v>8</v>
@@ -1626,7 +1635,7 @@
     </row>
     <row r="69" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B69" s="3">
         <v>8</v>
@@ -1637,7 +1646,7 @@
     </row>
     <row r="70" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B70" s="3">
         <v>8</v>
@@ -1648,7 +1657,7 @@
     </row>
     <row r="71" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B71" s="3">
         <v>8</v>
@@ -1659,7 +1668,7 @@
     </row>
     <row r="72" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B72" s="3">
         <v>8</v>
@@ -1670,7 +1679,7 @@
     </row>
     <row r="73" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B73" s="3">
         <v>8</v>
@@ -1681,7 +1690,7 @@
     </row>
     <row r="74" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B74" s="3">
         <v>8</v>
@@ -1692,7 +1701,7 @@
     </row>
     <row r="75" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B75" s="3">
         <v>8</v>
@@ -1703,7 +1712,7 @@
     </row>
     <row r="76" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B76" s="3">
         <v>8</v>
@@ -1714,7 +1723,7 @@
     </row>
     <row r="77" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B77" s="3">
         <v>8</v>
@@ -1725,7 +1734,7 @@
     </row>
     <row r="78" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B78" s="3">
         <v>9</v>
@@ -1736,7 +1745,7 @@
     </row>
     <row r="79" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B79" s="3">
         <v>9</v>
@@ -1747,7 +1756,7 @@
     </row>
     <row r="80" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B80" s="3">
         <v>9</v>
@@ -1758,7 +1767,7 @@
     </row>
     <row r="81" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B81" s="3">
         <v>9</v>
@@ -1769,7 +1778,7 @@
     </row>
     <row r="82" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B82" s="3">
         <v>9</v>
@@ -1780,7 +1789,7 @@
     </row>
     <row r="83" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B83" s="3">
         <v>9</v>
@@ -1791,7 +1800,7 @@
     </row>
     <row r="84" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B84" s="3">
         <v>9</v>
@@ -1802,7 +1811,7 @@
     </row>
     <row r="85" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B85" s="3">
         <v>9</v>
@@ -1813,7 +1822,7 @@
     </row>
     <row r="86" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B86" s="3">
         <v>10</v>
@@ -1824,7 +1833,7 @@
     </row>
     <row r="87" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B87" s="3">
         <v>10</v>
@@ -1835,7 +1844,7 @@
     </row>
     <row r="88" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B88" s="3">
         <v>10</v>
@@ -1846,7 +1855,7 @@
     </row>
     <row r="89" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B89" s="3">
         <v>10</v>
@@ -1857,7 +1866,7 @@
     </row>
     <row r="90" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B90" s="3">
         <v>10</v>
@@ -1868,7 +1877,7 @@
     </row>
     <row r="91" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B91" s="3">
         <v>10</v>
@@ -1879,7 +1888,7 @@
     </row>
     <row r="92" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B92" s="3">
         <v>10</v>
@@ -1890,7 +1899,7 @@
     </row>
     <row r="93" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B93" s="3">
         <v>10</v>
@@ -1901,7 +1910,7 @@
     </row>
     <row r="94" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B94" s="3">
         <v>10</v>
@@ -1912,7 +1921,7 @@
     </row>
     <row r="95" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B95" s="3">
         <v>10</v>
@@ -1923,7 +1932,7 @@
     </row>
     <row r="96" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B96" s="3">
         <v>10</v>
@@ -1934,7 +1943,7 @@
     </row>
     <row r="97" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B97" s="3">
         <v>10</v>
@@ -1945,7 +1954,7 @@
     </row>
     <row r="98" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B98" s="3">
         <v>10</v>
@@ -1956,7 +1965,7 @@
     </row>
     <row r="99" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B99" s="3">
         <v>10</v>
@@ -1967,7 +1976,7 @@
     </row>
     <row r="100" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B100" s="3">
         <v>11</v>
@@ -1978,7 +1987,7 @@
     </row>
     <row r="101" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B101" s="3">
         <v>11</v>
@@ -1989,7 +1998,7 @@
     </row>
     <row r="102" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B102" s="3">
         <v>11</v>
@@ -2000,7 +2009,7 @@
     </row>
     <row r="103" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B103" s="3">
         <v>11</v>
@@ -2011,7 +2020,7 @@
     </row>
     <row r="104" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B104" s="3">
         <v>11</v>
@@ -2022,7 +2031,7 @@
     </row>
     <row r="105" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B105" s="3">
         <v>11</v>
@@ -2033,7 +2042,7 @@
     </row>
     <row r="106" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B106" s="3">
         <v>11</v>
@@ -2044,7 +2053,7 @@
     </row>
     <row r="107" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B107" s="3">
         <v>11</v>
@@ -2055,7 +2064,7 @@
     </row>
     <row r="108" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B108" s="3">
         <v>11</v>
@@ -2066,7 +2075,7 @@
     </row>
     <row r="109" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B109" s="3">
         <v>11</v>
@@ -2077,7 +2086,7 @@
     </row>
     <row r="110" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B110" s="3">
         <v>11</v>
@@ -2088,7 +2097,7 @@
     </row>
     <row r="111" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B111" s="3">
         <v>11</v>
@@ -2099,7 +2108,7 @@
     </row>
     <row r="112" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B112" s="3">
         <v>12</v>
@@ -2110,7 +2119,7 @@
     </row>
     <row r="113" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B113" s="3">
         <v>12</v>
@@ -2121,7 +2130,7 @@
     </row>
     <row r="114" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B114" s="3">
         <v>12</v>
@@ -2132,7 +2141,7 @@
     </row>
     <row r="115" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B115" s="3">
         <v>12</v>
@@ -2143,7 +2152,7 @@
     </row>
     <row r="116" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B116" s="3">
         <v>12</v>
@@ -2154,7 +2163,7 @@
     </row>
     <row r="117" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B117" s="3">
         <v>12</v>
@@ -2165,7 +2174,7 @@
     </row>
     <row r="118" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B118" s="3">
         <v>12</v>
@@ -2176,7 +2185,7 @@
     </row>
     <row r="119" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B119" s="3">
         <v>12</v>
@@ -2187,7 +2196,7 @@
     </row>
     <row r="120" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B120" s="3">
         <v>12</v>
@@ -2198,7 +2207,7 @@
     </row>
     <row r="121" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B121" s="3">
         <v>12</v>
@@ -2209,7 +2218,7 @@
     </row>
     <row r="122" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B122" s="3">
         <v>12</v>
@@ -2220,7 +2229,7 @@
     </row>
     <row r="123" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B123" s="3">
         <v>12</v>
@@ -2231,7 +2240,7 @@
     </row>
     <row r="124" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B124" s="3">
         <v>13</v>
@@ -2242,7 +2251,7 @@
     </row>
     <row r="125" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B125" s="3">
         <v>13</v>
@@ -2253,7 +2262,7 @@
     </row>
     <row r="126" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B126" s="3">
         <v>13</v>
@@ -2264,7 +2273,7 @@
     </row>
     <row r="127" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B127" s="3">
         <v>13</v>
@@ -2275,7 +2284,7 @@
     </row>
     <row r="128" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B128" s="3">
         <v>13</v>
@@ -2286,7 +2295,7 @@
     </row>
     <row r="129" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B129" s="3">
         <v>13</v>
@@ -2297,7 +2306,7 @@
     </row>
     <row r="130" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B130" s="3">
         <v>13</v>
@@ -2308,7 +2317,7 @@
     </row>
     <row r="131" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B131" s="3">
         <v>13</v>
@@ -2319,7 +2328,7 @@
     </row>
     <row r="132" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B132" s="3">
         <v>14</v>
@@ -2330,7 +2339,7 @@
     </row>
     <row r="133" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B133" s="3">
         <v>14</v>
@@ -2341,7 +2350,7 @@
     </row>
     <row r="134" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B134" s="3">
         <v>14</v>
@@ -2352,7 +2361,7 @@
     </row>
     <row r="135" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B135" s="3">
         <v>14</v>
@@ -2363,7 +2372,7 @@
     </row>
     <row r="136" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B136" s="3">
         <v>14</v>
@@ -2374,7 +2383,7 @@
     </row>
     <row r="137" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B137" s="3">
         <v>14</v>
@@ -2385,7 +2394,7 @@
     </row>
     <row r="138" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B138" s="3">
         <v>14</v>
@@ -2396,7 +2405,7 @@
     </row>
     <row r="139" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B139" s="3">
         <v>14</v>
@@ -2407,7 +2416,7 @@
     </row>
     <row r="140" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B140" s="3">
         <v>14</v>
@@ -2418,7 +2427,7 @@
     </row>
     <row r="141" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B141" s="3">
         <v>14</v>
@@ -2429,7 +2438,7 @@
     </row>
     <row r="142" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B142" s="3">
         <v>14</v>
@@ -2440,7 +2449,7 @@
     </row>
     <row r="143" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B143" s="3">
         <v>14</v>
@@ -2451,7 +2460,7 @@
     </row>
     <row r="144" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B144" s="3">
         <v>14</v>
@@ -2462,7 +2471,7 @@
     </row>
     <row r="145" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B145" s="3">
         <v>15</v>
@@ -2473,7 +2482,7 @@
     </row>
     <row r="146" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B146" s="3">
         <v>15</v>
@@ -2484,7 +2493,7 @@
     </row>
     <row r="147" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B147" s="3">
         <v>15</v>
@@ -2495,7 +2504,7 @@
     </row>
     <row r="148" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B148" s="3">
         <v>15</v>
@@ -2506,7 +2515,7 @@
     </row>
     <row r="149" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B149" s="3">
         <v>15</v>
@@ -2517,7 +2526,7 @@
     </row>
     <row r="150" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B150" s="3">
         <v>16</v>
@@ -2528,7 +2537,7 @@
     </row>
     <row r="151" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B151" s="3">
         <v>16</v>
@@ -2537,9 +2546,9 @@
         <v>264829</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B152" s="4">
         <v>95</v>
@@ -2548,9 +2557,9 @@
         <v>337423</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B153" s="4">
         <v>102</v>
@@ -2559,9 +2568,9 @@
         <v>366550</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B154" s="4">
         <v>104</v>
@@ -2570,9 +2579,9 @@
         <v>338233</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B155" s="4">
         <v>107</v>
@@ -2581,9 +2590,9 @@
         <v>359810</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B156" s="4">
         <v>108</v>
@@ -2592,9 +2601,9 @@
         <v>386821</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B157" s="4">
         <v>26</v>
@@ -2603,9 +2612,9 @@
         <v>248842</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B158" s="4">
         <v>27</v>
